--- a/language_prod.xlsx
+++ b/language_prod.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.hildred\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="17920" windowHeight="14380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25170" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Lang_prod" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +29,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="B348" authorId="0">
+    <comment ref="B348" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -61,9 +66,6 @@
     <t>LEVEL</t>
   </si>
   <si>
-    <t>AVERAGE SOURCE STATEMENTS PER FUNCTION POINT</t>
-  </si>
-  <si>
     <t>1032/AF</t>
   </si>
   <si>
@@ -1529,12 +1531,15 @@
   </si>
   <si>
     <t>FP/Man/Month</t>
+  </si>
+  <si>
+    <t>LOC/FP (AVERAGE SOURCE STATEMENTS PER FUNCTION POINT)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2062,18 +2067,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E491"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A321" workbookViewId="0">
-      <selection activeCell="G353" sqref="G353"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="3" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="15" customHeight="1">
+    <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2081,15 +2086,15 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="E3" s="3" t="s">
+    </row>
+    <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="15" customHeight="1">
-      <c r="B4" s="4" t="s">
-        <v>3</v>
       </c>
       <c r="C4" s="5">
         <v>20</v>
@@ -2101,9 +2106,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1">
+    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="8">
         <v>1</v>
@@ -2116,9 +2121,9 @@
         <v>320</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="15" customHeight="1">
+    <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="5">
         <v>3</v>
@@ -2131,9 +2136,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="15" customHeight="1">
+    <row r="7" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="8">
         <v>4</v>
@@ -2146,9 +2151,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="15" customHeight="1">
+    <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="5">
         <v>16</v>
@@ -2161,9 +2166,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="15" customHeight="1">
+    <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="8">
         <v>70</v>
@@ -2176,9 +2181,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="15" customHeight="1">
+    <row r="10" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="5">
         <v>3.5</v>
@@ -2191,9 +2196,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="15" customHeight="1">
+    <row r="11" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="8">
         <v>20</v>
@@ -2206,9 +2211,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="15" customHeight="1">
+    <row r="12" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="5">
         <v>17</v>
@@ -2221,9 +2226,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="15" customHeight="1">
+    <row r="13" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="8">
         <v>8.5</v>
@@ -2236,9 +2241,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="15" customHeight="1">
+    <row r="14" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="5">
         <v>15</v>
@@ -2251,9 +2256,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="15" customHeight="1">
+    <row r="15" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="8">
         <v>11.5</v>
@@ -2266,9 +2271,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="15" customHeight="1">
+    <row r="16" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="5">
         <v>4.5</v>
@@ -2281,9 +2286,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="15" customHeight="1">
+    <row r="17" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="8">
         <v>6.5</v>
@@ -2296,9 +2301,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="15" customHeight="1">
+    <row r="18" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="5">
         <v>8</v>
@@ -2311,9 +2316,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="15" customHeight="1">
+    <row r="19" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="8">
         <v>16</v>
@@ -2326,9 +2331,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="15" customHeight="1">
+    <row r="20" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="5">
         <v>16</v>
@@ -2341,9 +2346,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="15" customHeight="1">
+    <row r="21" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="8">
         <v>16</v>
@@ -2356,9 +2361,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="15" customHeight="1">
+    <row r="22" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="5">
         <v>6.5</v>
@@ -2371,9 +2376,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="15" customHeight="1">
+    <row r="23" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="8">
         <v>6.5</v>
@@ -2386,9 +2391,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="15" customHeight="1">
+    <row r="24" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="5">
         <v>3</v>
@@ -2401,9 +2406,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="15" customHeight="1">
+    <row r="25" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="8">
         <v>3</v>
@@ -2416,9 +2421,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="15" customHeight="1">
+    <row r="26" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="5">
         <v>10</v>
@@ -2431,9 +2436,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="15" customHeight="1">
+    <row r="27" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="8">
         <v>6.5</v>
@@ -2446,9 +2451,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="15" customHeight="1">
+    <row r="28" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="5">
         <v>5</v>
@@ -2461,9 +2466,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="15" customHeight="1">
+    <row r="29" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="8">
         <v>5</v>
@@ -2476,9 +2481,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="15" customHeight="1">
+    <row r="30" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="5">
         <v>3</v>
@@ -2491,9 +2496,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="15" customHeight="1">
+    <row r="31" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="8">
         <v>3.5</v>
@@ -2506,9 +2511,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="15" customHeight="1">
+    <row r="32" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="5">
         <v>25</v>
@@ -2521,9 +2526,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="15" customHeight="1">
+    <row r="33" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="8">
         <v>25</v>
@@ -2536,9 +2541,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="15" customHeight="1">
+    <row r="34" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="5">
         <v>10</v>
@@ -2551,9 +2556,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="15" customHeight="1">
+    <row r="35" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="8">
         <v>10</v>
@@ -2566,9 +2571,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="15" customHeight="1">
+    <row r="36" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="5">
         <v>10</v>
@@ -2581,9 +2586,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="15" customHeight="1">
+    <row r="37" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="8">
         <v>2.5</v>
@@ -2596,9 +2601,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="15" customHeight="1">
+    <row r="38" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="5">
         <v>16</v>
@@ -2611,9 +2616,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="15" customHeight="1">
+    <row r="39" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="8">
         <v>9</v>
@@ -2626,9 +2631,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="15" customHeight="1">
+    <row r="40" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" s="5">
         <v>19</v>
@@ -2641,9 +2646,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="15" customHeight="1">
+    <row r="41" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" s="8">
         <v>4.5</v>
@@ -2656,9 +2661,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="15" customHeight="1">
+    <row r="42" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" s="5">
         <v>16</v>
@@ -2671,9 +2676,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="15" customHeight="1">
+    <row r="43" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="8">
         <v>6.5</v>
@@ -2686,9 +2691,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="15" customHeight="1">
+    <row r="44" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44" s="5">
         <v>3</v>
@@ -2701,9 +2706,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="15" customHeight="1">
+    <row r="45" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45" s="8">
         <v>6.5</v>
@@ -2716,9 +2721,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="15" customHeight="1">
+    <row r="46" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="5">
         <v>5</v>
@@ -2731,9 +2736,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="2:5" ht="15" customHeight="1">
+    <row r="47" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" s="8">
         <v>6.5</v>
@@ -2746,9 +2751,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="2:5" ht="15" customHeight="1">
+    <row r="48" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" s="5">
         <v>7</v>
@@ -2761,9 +2766,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="15" customHeight="1">
+    <row r="49" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="8">
         <v>7</v>
@@ -2776,9 +2781,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="15" customHeight="1">
+    <row r="50" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" s="5">
         <v>8</v>
@@ -2791,9 +2796,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="15" customHeight="1">
+    <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" s="8">
         <v>17</v>
@@ -2806,9 +2811,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="15" customHeight="1">
+    <row r="52" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" s="5">
         <v>25</v>
@@ -2821,9 +2826,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="2:5" ht="15" customHeight="1">
+    <row r="53" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" s="8">
         <v>7</v>
@@ -2836,9 +2841,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="15" customHeight="1">
+    <row r="54" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
@@ -2851,9 +2856,9 @@
         <v>320</v>
       </c>
     </row>
-    <row r="55" spans="2:5" ht="15" customHeight="1">
+    <row r="55" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55" s="8">
         <v>1.5</v>
@@ -2866,9 +2871,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="2:5" ht="15" customHeight="1">
+    <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C56" s="5">
         <v>5</v>
@@ -2881,9 +2886,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="15" customHeight="1">
+    <row r="57" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57" s="8">
         <v>1</v>
@@ -2896,9 +2901,9 @@
         <v>320</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="15" customHeight="1">
+    <row r="58" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C58" s="5">
         <v>15</v>
@@ -2911,9 +2916,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="15" customHeight="1">
+    <row r="59" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C59" s="8">
         <v>2.5</v>
@@ -2926,9 +2931,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="15" customHeight="1">
+    <row r="60" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C60" s="5">
         <v>3</v>
@@ -2941,9 +2946,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="61" spans="2:5" ht="15" customHeight="1">
+    <row r="61" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" s="8">
         <v>6</v>
@@ -2956,9 +2961,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="2:5" ht="15" customHeight="1">
+    <row r="62" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="5">
         <v>3</v>
@@ -2971,9 +2976,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="2:5" ht="15" customHeight="1">
+    <row r="63" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C63" s="8">
         <v>2.5</v>
@@ -2986,9 +2991,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="64" spans="2:5" ht="15" customHeight="1">
+    <row r="64" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C64" s="5">
         <v>1</v>
@@ -3001,9 +3006,9 @@
         <v>320</v>
       </c>
     </row>
-    <row r="65" spans="2:5" ht="15" customHeight="1">
+    <row r="65" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C65" s="8">
         <v>3.5</v>
@@ -3016,9 +3021,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="15" customHeight="1">
+    <row r="66" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C66" s="5">
         <v>3.5</v>
@@ -3031,9 +3036,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="15" customHeight="1">
+    <row r="67" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C67" s="8">
         <v>3</v>
@@ -3046,9 +3051,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="15" customHeight="1">
+    <row r="68" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C68" s="5">
         <v>9</v>
@@ -3061,9 +3066,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="15" customHeight="1">
+    <row r="69" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C69" s="8">
         <v>50</v>
@@ -3076,9 +3081,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="2:5" ht="15" customHeight="1">
+    <row r="70" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C70" s="5">
         <v>25</v>
@@ -3091,9 +3096,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="2:5" ht="15" customHeight="1">
+    <row r="71" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C71" s="8">
         <v>2.5</v>
@@ -3106,9 +3111,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="2:5" ht="15" customHeight="1">
+    <row r="72" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C72" s="5">
         <v>3.5</v>
@@ -3121,9 +3126,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="73" spans="2:5" ht="15" customHeight="1">
+    <row r="73" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C73" s="8">
         <v>6</v>
@@ -3136,9 +3141,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="2:5" ht="15" customHeight="1">
+    <row r="74" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C74" s="10">
         <v>6</v>
@@ -3151,9 +3156,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="2:5" ht="15" customHeight="1">
+    <row r="75" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C75" s="5">
         <v>2.5</v>
@@ -3166,9 +3171,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="76" spans="2:5" ht="15" customHeight="1">
+    <row r="76" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C76" s="8">
         <v>8</v>
@@ -3181,9 +3186,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="2:5" ht="15" customHeight="1">
+    <row r="77" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C77" s="5">
         <v>11.5</v>
@@ -3196,9 +3201,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="2:5" ht="15" customHeight="1">
+    <row r="78" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C78" s="8">
         <v>6.5</v>
@@ -3211,9 +3216,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="79" spans="2:5" ht="15" customHeight="1">
+    <row r="79" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C79" s="5">
         <v>3.5</v>
@@ -3226,9 +3231,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="2:5" ht="15" customHeight="1">
+    <row r="80" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C80" s="8">
         <v>16</v>
@@ -3241,9 +3246,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="15" customHeight="1">
+    <row r="81" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C81" s="5">
         <v>7</v>
@@ -3256,9 +3261,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="15" customHeight="1">
+    <row r="82" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C82" s="8">
         <v>6</v>
@@ -3271,9 +3276,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="15" customHeight="1">
+    <row r="83" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C83" s="5">
         <v>3</v>
@@ -3286,9 +3291,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="15" customHeight="1">
+    <row r="84" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C84" s="8">
         <v>3</v>
@@ -3301,9 +3306,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="15" customHeight="1">
+    <row r="85" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C85" s="5">
         <v>7</v>
@@ -3316,9 +3321,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="15" customHeight="1">
+    <row r="86" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C86" s="8">
         <v>5.5</v>
@@ -3331,9 +3336,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="15" customHeight="1">
+    <row r="87" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C87" s="5">
         <v>4</v>
@@ -3346,9 +3351,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="15" customHeight="1">
+    <row r="88" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C88" s="8">
         <v>10</v>
@@ -3361,9 +3366,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="15" customHeight="1">
+    <row r="89" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C89" s="5">
         <v>17</v>
@@ -3376,9 +3381,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="2:5" ht="15" customHeight="1">
+    <row r="90" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C90" s="8">
         <v>8</v>
@@ -3391,9 +3396,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="15" customHeight="1">
+    <row r="91" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C91" s="5">
         <v>15</v>
@@ -3406,9 +3411,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="2:5" ht="15" customHeight="1">
+    <row r="92" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C92" s="8">
         <v>8</v>
@@ -3421,9 +3426,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="2:5" ht="15" customHeight="1">
+    <row r="93" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C93" s="5">
         <v>3</v>
@@ -3436,9 +3441,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="94" spans="2:5" ht="15" customHeight="1">
+    <row r="94" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="8">
         <v>17</v>
@@ -3451,9 +3456,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="2:5" ht="15" customHeight="1">
+    <row r="95" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C95" s="5">
         <v>3</v>
@@ -3466,9 +3471,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="96" spans="2:5" ht="15" customHeight="1">
+    <row r="96" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C96" s="8">
         <v>3</v>
@@ -3481,9 +3486,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="97" spans="2:5" ht="15" customHeight="1">
+    <row r="97" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C97" s="5">
         <v>3.5</v>
@@ -3496,9 +3501,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="98" spans="2:5" ht="15" customHeight="1">
+    <row r="98" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C98" s="8">
         <v>16</v>
@@ -3511,9 +3516,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="2:5" ht="15" customHeight="1">
+    <row r="99" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C99" s="5">
         <v>9</v>
@@ -3526,9 +3531,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="2:5" ht="15" customHeight="1">
+    <row r="100" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C100" s="8">
         <v>9</v>
@@ -3541,9 +3546,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="2:5" ht="15" customHeight="1">
+    <row r="101" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C101" s="5">
         <v>9</v>
@@ -3556,9 +3561,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="2:5" ht="15" customHeight="1">
+    <row r="102" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C102" s="8">
         <v>9</v>
@@ -3571,9 +3576,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="2:5" ht="15" customHeight="1">
+    <row r="103" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C103" s="5">
         <v>4.5</v>
@@ -3586,9 +3591,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="104" spans="2:5" ht="15" customHeight="1">
+    <row r="104" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C104" s="8">
         <v>4</v>
@@ -3601,9 +3606,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="105" spans="2:5" ht="15" customHeight="1">
+    <row r="105" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C105" s="5">
         <v>5</v>
@@ -3616,9 +3621,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="106" spans="2:5" ht="15" customHeight="1">
+    <row r="106" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C106" s="8">
         <v>5</v>
@@ -3631,9 +3636,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="107" spans="2:5" ht="15" customHeight="1">
+    <row r="107" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C107" s="5">
         <v>4</v>
@@ -3646,9 +3651,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="108" spans="2:5" ht="15" customHeight="1">
+    <row r="108" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C108" s="8">
         <v>5</v>
@@ -3661,9 +3666,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="109" spans="2:5" ht="15" customHeight="1">
+    <row r="109" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C109" s="5">
         <v>3</v>
@@ -3676,9 +3681,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="2:5" ht="15" customHeight="1">
+    <row r="110" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C110" s="8">
         <v>17</v>
@@ -3691,9 +3696,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="2:5" ht="15" customHeight="1">
+    <row r="111" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C111" s="5">
         <v>22</v>
@@ -3706,9 +3711,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="2:5" ht="15" customHeight="1">
+    <row r="112" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C112" s="8">
         <v>2</v>
@@ -3721,9 +3726,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="113" spans="2:5" ht="15" customHeight="1">
+    <row r="113" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C113" s="5">
         <v>16</v>
@@ -3736,9 +3741,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="2:5" ht="15" customHeight="1">
+    <row r="114" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C114" s="8">
         <v>6.5</v>
@@ -3751,9 +3756,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="115" spans="2:5" ht="15" customHeight="1">
+    <row r="115" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C115" s="5">
         <v>6</v>
@@ -3766,9 +3771,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="116" spans="2:5" ht="15" customHeight="1">
+    <row r="116" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C116" s="8">
         <v>7</v>
@@ -3781,9 +3786,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="117" spans="2:5" ht="15" customHeight="1">
+    <row r="117" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C117" s="5">
         <v>25</v>
@@ -3796,9 +3801,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="2:5" ht="15" customHeight="1">
+    <row r="118" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C118" s="8">
         <v>6.5</v>
@@ -3811,9 +3816,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="119" spans="2:5" ht="15" customHeight="1">
+    <row r="119" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C119" s="5">
         <v>17</v>
@@ -3826,9 +3831,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="2:5" ht="15" customHeight="1">
+    <row r="120" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C120" s="8">
         <v>8</v>
@@ -3841,9 +3846,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="121" spans="2:5" ht="15" customHeight="1">
+    <row r="121" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C121" s="5">
         <v>8</v>
@@ -3856,9 +3861,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="122" spans="2:5" ht="15" customHeight="1">
+    <row r="122" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C122" s="8">
         <v>16</v>
@@ -3871,9 +3876,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="2:5" ht="15" customHeight="1">
+    <row r="123" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C123" s="5">
         <v>8</v>
@@ -3886,9 +3891,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="124" spans="2:5" ht="15" customHeight="1">
+    <row r="124" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C124" s="8">
         <v>9</v>
@@ -3901,9 +3906,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="125" spans="2:5" ht="15" customHeight="1">
+    <row r="125" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C125" s="5">
         <v>1.5</v>
@@ -3916,9 +3921,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="126" spans="2:5" ht="15" customHeight="1">
+    <row r="126" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C126" s="8">
         <v>8</v>
@@ -3931,9 +3936,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="127" spans="2:5" ht="15" customHeight="1">
+    <row r="127" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C127" s="5">
         <v>9</v>
@@ -3946,9 +3951,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="128" spans="2:5" ht="15" customHeight="1">
+    <row r="128" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C128" s="8">
         <v>11</v>
@@ -3961,9 +3966,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="129" spans="2:5" ht="15" customHeight="1">
+    <row r="129" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C129" s="5">
         <v>8</v>
@@ -3976,9 +3981,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="130" spans="2:5" ht="15" customHeight="1">
+    <row r="130" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C130" s="8">
         <v>17</v>
@@ -3991,9 +3996,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="2:5" ht="15" customHeight="1">
+    <row r="131" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C131" s="5">
         <v>2.5</v>
@@ -4006,9 +4011,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="132" spans="2:5" ht="15" customHeight="1">
+    <row r="132" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C132" s="8">
         <v>2</v>
@@ -4021,9 +4026,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="133" spans="2:5" ht="15" customHeight="1">
+    <row r="133" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C133" s="5">
         <v>7</v>
@@ -4036,9 +4041,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="2:5" ht="15" customHeight="1">
+    <row r="134" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C134" s="8">
         <v>7</v>
@@ -4051,9 +4056,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="2:5" ht="15" customHeight="1">
+    <row r="135" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C135" s="5">
         <v>4.5</v>
@@ -4066,9 +4071,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="136" spans="2:5" ht="15" customHeight="1">
+    <row r="136" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C136" s="8">
         <v>7</v>
@@ -4081,9 +4086,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="137" spans="2:5" ht="15" customHeight="1">
+    <row r="137" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C137" s="5">
         <v>11</v>
@@ -4096,9 +4101,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="138" spans="2:5" ht="15" customHeight="1">
+    <row r="138" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C138" s="8">
         <v>6.5</v>
@@ -4111,9 +4116,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="139" spans="2:5" ht="15" customHeight="1">
+    <row r="139" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C139" s="5">
         <v>25</v>
@@ -4126,9 +4131,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="2:5" ht="15" customHeight="1">
+    <row r="140" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C140" s="8">
         <v>6.5</v>
@@ -4141,9 +4146,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="141" spans="2:5" ht="15" customHeight="1">
+    <row r="141" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C141" s="5">
         <v>6</v>
@@ -4156,9 +4161,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="142" spans="2:5" ht="15" customHeight="1">
+    <row r="142" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C142" s="8">
         <v>27</v>
@@ -4171,9 +4176,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="2:5" ht="15" customHeight="1">
+    <row r="143" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C143" s="5">
         <v>15</v>
@@ -4186,9 +4191,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="144" spans="2:5" ht="15" customHeight="1">
+    <row r="144" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C144" s="8">
         <v>7</v>
@@ -4201,9 +4206,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="145" spans="2:5" ht="15" customHeight="1">
+    <row r="145" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C145" s="5">
         <v>6</v>
@@ -4216,9 +4221,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="146" spans="2:5" ht="15" customHeight="1">
+    <row r="146" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C146" s="8">
         <v>11</v>
@@ -4231,9 +4236,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="147" spans="2:5" ht="15" customHeight="1">
+    <row r="147" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C147" s="5">
         <v>16</v>
@@ -4246,9 +4251,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="2:5" ht="15" customHeight="1">
+    <row r="148" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C148" s="8">
         <v>8</v>
@@ -4261,9 +4266,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="149" spans="2:5" ht="15" customHeight="1">
+    <row r="149" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C149" s="5">
         <v>8</v>
@@ -4276,9 +4281,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="150" spans="2:5" ht="15" customHeight="1">
+    <row r="150" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C150" s="8">
         <v>6.5</v>
@@ -4291,9 +4296,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="151" spans="2:5" ht="15" customHeight="1">
+    <row r="151" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C151" s="5">
         <v>4.5</v>
@@ -4306,9 +4311,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="152" spans="2:5" ht="15" customHeight="1">
+    <row r="152" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C152" s="8">
         <v>3</v>
@@ -4321,9 +4326,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="153" spans="2:5" ht="15" customHeight="1">
+    <row r="153" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C153" s="5">
         <v>51</v>
@@ -4336,9 +4341,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="2:5" ht="15" customHeight="1">
+    <row r="154" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C154" s="8">
         <v>55</v>
@@ -4351,9 +4356,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="2:5" ht="15" customHeight="1">
+    <row r="155" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C155" s="5">
         <v>57</v>
@@ -4366,9 +4371,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="2:5" ht="15" customHeight="1">
+    <row r="156" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C156" s="8">
         <v>9</v>
@@ -4381,9 +4386,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="157" spans="2:5" ht="15" customHeight="1">
+    <row r="157" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C157" s="5">
         <v>6.5</v>
@@ -4396,9 +4401,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="158" spans="2:5" ht="15" customHeight="1">
+    <row r="158" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C158" s="8">
         <v>5.75</v>
@@ -4411,9 +4416,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="159" spans="2:5" ht="15" customHeight="1">
+    <row r="159" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C159" s="5">
         <v>9</v>
@@ -4426,9 +4431,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="160" spans="2:5" ht="15" customHeight="1">
+    <row r="160" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C160" s="8">
         <v>16</v>
@@ -4441,9 +4446,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="2:5" ht="15" customHeight="1">
+    <row r="161" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C161" s="5">
         <v>11</v>
@@ -4456,9 +4461,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="162" spans="2:5" ht="15" customHeight="1">
+    <row r="162" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C162" s="8">
         <v>9</v>
@@ -4471,9 +4476,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="163" spans="2:5" ht="15" customHeight="1">
+    <row r="163" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C163" s="5">
         <v>9</v>
@@ -4486,9 +4491,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="164" spans="2:5" ht="15" customHeight="1">
+    <row r="164" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C164" s="8">
         <v>11</v>
@@ -4501,9 +4506,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="165" spans="2:5" ht="15" customHeight="1">
+    <row r="165" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C165" s="5">
         <v>7</v>
@@ -4516,9 +4521,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="166" spans="2:5" ht="15" customHeight="1">
+    <row r="166" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C166" s="8">
         <v>11</v>
@@ -4531,9 +4536,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="167" spans="2:5" ht="15" customHeight="1">
+    <row r="167" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C167" s="5">
         <v>8</v>
@@ -4546,9 +4551,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="168" spans="2:5" ht="15" customHeight="1">
+    <row r="168" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C168" s="8">
         <v>6</v>
@@ -4561,9 +4566,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="169" spans="2:5" ht="15" customHeight="1">
+    <row r="169" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C169" s="5">
         <v>18</v>
@@ -4576,9 +4581,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="2:5" ht="15" customHeight="1">
+    <row r="170" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C170" s="8">
         <v>5</v>
@@ -4591,9 +4596,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="171" spans="2:5" ht="15" customHeight="1">
+    <row r="171" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C171" s="5">
         <v>2.5</v>
@@ -4606,9 +4611,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="172" spans="2:5" ht="15" customHeight="1">
+    <row r="172" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C172" s="8">
         <v>3</v>
@@ -4621,9 +4626,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="173" spans="2:5" ht="15" customHeight="1">
+    <row r="173" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C173" s="5">
         <v>4</v>
@@ -4636,9 +4641,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="174" spans="2:5" ht="15" customHeight="1">
+    <row r="174" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C174" s="8">
         <v>4.5</v>
@@ -4651,9 +4656,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="175" spans="2:5" ht="15" customHeight="1">
+    <row r="175" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C175" s="5">
         <v>3</v>
@@ -4666,9 +4671,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="176" spans="2:5" ht="15" customHeight="1">
+    <row r="176" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C176" s="8">
         <v>2.5</v>
@@ -4681,9 +4686,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="177" spans="2:5" ht="15" customHeight="1">
+    <row r="177" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C177" s="5">
         <v>11</v>
@@ -4696,9 +4701,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="178" spans="2:5" ht="15" customHeight="1">
+    <row r="178" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C178" s="8">
         <v>8</v>
@@ -4711,9 +4716,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="179" spans="2:5" ht="15" customHeight="1">
+    <row r="179" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C179" s="5">
         <v>9.5</v>
@@ -4726,9 +4731,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="180" spans="2:5" ht="15" customHeight="1">
+    <row r="180" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C180" s="8">
         <v>50</v>
@@ -4741,9 +4746,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="2:5" ht="15" customHeight="1">
+    <row r="181" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C181" s="5">
         <v>6.5</v>
@@ -4756,9 +4761,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="182" spans="2:5" ht="15" customHeight="1">
+    <row r="182" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C182" s="8">
         <v>20</v>
@@ -4771,9 +4776,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="183" spans="2:5" ht="15" customHeight="1">
+    <row r="183" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C183" s="5">
         <v>12</v>
@@ -4786,9 +4791,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="184" spans="2:5" ht="15" customHeight="1">
+    <row r="184" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C184" s="8">
         <v>25</v>
@@ -4801,9 +4806,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="2:5" ht="15" customHeight="1">
+    <row r="185" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C185" s="5">
         <v>21</v>
@@ -4816,9 +4821,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="2:5" ht="15" customHeight="1">
+    <row r="186" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C186" s="8">
         <v>17</v>
@@ -4831,9 +4836,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="187" spans="2:5" ht="15" customHeight="1">
+    <row r="187" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C187" s="5">
         <v>20</v>
@@ -4846,9 +4851,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="2:5" ht="15" customHeight="1">
+    <row r="188" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C188" s="8">
         <v>9.5</v>
@@ -4861,9 +4866,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="189" spans="2:5" ht="15" customHeight="1">
+    <row r="189" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C189" s="5">
         <v>7</v>
@@ -4876,9 +4881,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="190" spans="2:5" ht="15" customHeight="1">
+    <row r="190" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C190" s="8">
         <v>5</v>
@@ -4891,9 +4896,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="191" spans="2:5" ht="15" customHeight="1">
+    <row r="191" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C191" s="5">
         <v>7</v>
@@ -4906,9 +4911,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="192" spans="2:5" ht="15" customHeight="1">
+    <row r="192" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B192" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C192" s="8">
         <v>11.5</v>
@@ -4921,9 +4926,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="193" spans="2:5" ht="15" customHeight="1">
+    <row r="193" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C193" s="5">
         <v>6.5</v>
@@ -4936,9 +4941,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="194" spans="2:5" ht="15" customHeight="1">
+    <row r="194" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C194" s="8">
         <v>3.25</v>
@@ -4951,9 +4956,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="195" spans="2:5" ht="15" customHeight="1">
+    <row r="195" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C195" s="5">
         <v>8.5</v>
@@ -4966,9 +4971,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="196" spans="2:5" ht="15" customHeight="1">
+    <row r="196" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C196" s="8">
         <v>2.5</v>
@@ -4981,9 +4986,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="197" spans="2:5" ht="15" customHeight="1">
+    <row r="197" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C197" s="5">
         <v>5.5</v>
@@ -4996,9 +5001,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="198" spans="2:5" ht="15" customHeight="1">
+    <row r="198" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C198" s="8">
         <v>2.5</v>
@@ -5011,9 +5016,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="199" spans="2:5" ht="15" customHeight="1">
+    <row r="199" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C199" s="5">
         <v>20</v>
@@ -5026,9 +5031,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="2:5" ht="15" customHeight="1">
+    <row r="200" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B200" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C200" s="8">
         <v>22</v>
@@ -5041,9 +5046,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="2:5" ht="15" customHeight="1">
+    <row r="201" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B201" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C201" s="5">
         <v>20</v>
@@ -5056,9 +5061,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="2:5" ht="15" customHeight="1">
+    <row r="202" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B202" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C202" s="8">
         <v>16</v>
@@ -5071,9 +5076,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="2:5" ht="15" customHeight="1">
+    <row r="203" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B203" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C203" s="5">
         <v>18</v>
@@ -5086,9 +5091,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="204" spans="2:5" ht="15" customHeight="1">
+    <row r="204" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B204" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C204" s="8">
         <v>3.25</v>
@@ -5101,9 +5106,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="205" spans="2:5" ht="15" customHeight="1">
+    <row r="205" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B205" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C205" s="5">
         <v>8</v>
@@ -5116,9 +5121,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="206" spans="2:5" ht="15" customHeight="1">
+    <row r="206" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B206" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C206" s="8">
         <v>3.5</v>
@@ -5131,9 +5136,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="207" spans="2:5" ht="15" customHeight="1">
+    <row r="207" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B207" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C207" s="5">
         <v>3</v>
@@ -5146,9 +5151,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="208" spans="2:5" ht="15" customHeight="1">
+    <row r="208" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B208" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C208" s="8">
         <v>3.5</v>
@@ -5161,9 +5166,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="209" spans="2:5" ht="15" customHeight="1">
+    <row r="209" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B209" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C209" s="5">
         <v>4.5</v>
@@ -5176,9 +5181,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="210" spans="2:5" ht="15" customHeight="1">
+    <row r="210" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B210" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C210" s="8">
         <v>4</v>
@@ -5191,9 +5196,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="211" spans="2:5" ht="15" customHeight="1">
+    <row r="211" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B211" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C211" s="5">
         <v>8</v>
@@ -5206,9 +5211,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="212" spans="2:5" ht="15" customHeight="1">
+    <row r="212" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B212" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C212" s="8">
         <v>23</v>
@@ -5221,9 +5226,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="2:5" ht="15" customHeight="1">
+    <row r="213" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B213" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C213" s="5">
         <v>23</v>
@@ -5236,9 +5241,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="2:5" ht="15" customHeight="1">
+    <row r="214" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B214" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C214" s="8">
         <v>10</v>
@@ -5251,9 +5256,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="215" spans="2:5" ht="15" customHeight="1">
+    <row r="215" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B215" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C215" s="5">
         <v>8</v>
@@ -5266,9 +5271,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="216" spans="2:5" ht="15" customHeight="1">
+    <row r="216" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B216" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C216" s="8">
         <v>8</v>
@@ -5281,9 +5286,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="217" spans="2:5" ht="15" customHeight="1">
+    <row r="217" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B217" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C217" s="5">
         <v>8</v>
@@ -5296,9 +5301,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="218" spans="2:5" ht="15" customHeight="1">
+    <row r="218" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B218" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C218" s="8">
         <v>25</v>
@@ -5311,9 +5316,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="2:5" ht="15" customHeight="1">
+    <row r="219" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B219" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C219" s="5">
         <v>6.5</v>
@@ -5326,9 +5331,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="220" spans="2:5" ht="15" customHeight="1">
+    <row r="220" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B220" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C220" s="8">
         <v>20</v>
@@ -5341,9 +5346,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="221" spans="2:5" ht="15" customHeight="1">
+    <row r="221" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B221" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C221" s="5">
         <v>6</v>
@@ -5356,9 +5361,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="222" spans="2:5" ht="15" customHeight="1">
+    <row r="222" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B222" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C222" s="8">
         <v>5.5</v>
@@ -5371,9 +5376,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="223" spans="2:5" ht="15" customHeight="1">
+    <row r="223" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B223" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C223" s="5">
         <v>3</v>
@@ -5386,9 +5391,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="224" spans="2:5" ht="15" customHeight="1">
+    <row r="224" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B224" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C224" s="8">
         <v>2.5</v>
@@ -5401,9 +5406,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="225" spans="2:5" ht="15" customHeight="1">
+    <row r="225" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B225" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C225" s="5">
         <v>5.5</v>
@@ -5416,9 +5421,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="226" spans="2:5" ht="15" customHeight="1">
+    <row r="226" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B226" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C226" s="8">
         <v>25</v>
@@ -5431,9 +5436,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="2:5" ht="15" customHeight="1">
+    <row r="227" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B227" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C227" s="5">
         <v>4.5</v>
@@ -5446,9 +5451,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="228" spans="2:5" ht="15" customHeight="1">
+    <row r="228" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B228" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C228" s="8">
         <v>6</v>
@@ -5461,9 +5466,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="229" spans="2:5" ht="15" customHeight="1">
+    <row r="229" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B229" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C229" s="5">
         <v>1.45</v>
@@ -5476,9 +5481,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="230" spans="2:5" ht="15" customHeight="1">
+    <row r="230" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B230" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C230" s="8">
         <v>3</v>
@@ -5491,9 +5496,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="231" spans="2:5" ht="15" customHeight="1">
+    <row r="231" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B231" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C231" s="5">
         <v>3</v>
@@ -5506,9 +5511,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="232" spans="2:5" ht="15" customHeight="1">
+    <row r="232" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B232" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C232" s="8">
         <v>8</v>
@@ -5521,9 +5526,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="233" spans="2:5" ht="15" customHeight="1">
+    <row r="233" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B233" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C233" s="5">
         <v>6.5</v>
@@ -5536,9 +5541,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="234" spans="2:5" ht="15" customHeight="1">
+    <row r="234" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B234" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C234" s="8">
         <v>5</v>
@@ -5551,9 +5556,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="235" spans="2:5" ht="15" customHeight="1">
+    <row r="235" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B235" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C235" s="5">
         <v>6.5</v>
@@ -5566,9 +5571,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="236" spans="2:5" ht="15" customHeight="1">
+    <row r="236" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B236" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C236" s="8">
         <v>8</v>
@@ -5581,9 +5586,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="237" spans="2:5" ht="15" customHeight="1">
+    <row r="237" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B237" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C237" s="5">
         <v>5</v>
@@ -5596,9 +5601,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="238" spans="2:5" ht="15" customHeight="1">
+    <row r="238" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B238" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C238" s="8">
         <v>5</v>
@@ -5611,9 +5616,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="239" spans="2:5" ht="15" customHeight="1">
+    <row r="239" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B239" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C239" s="5">
         <v>6.5</v>
@@ -5626,9 +5631,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="240" spans="2:5" ht="15" customHeight="1">
+    <row r="240" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B240" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C240" s="8">
         <v>5.5</v>
@@ -5641,9 +5646,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="241" spans="2:5" ht="15" customHeight="1">
+    <row r="241" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B241" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C241" s="5">
         <v>15</v>
@@ -5656,9 +5661,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="242" spans="2:5" ht="15" customHeight="1">
+    <row r="242" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B242" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C242" s="8">
         <v>9</v>
@@ -5671,9 +5676,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="243" spans="2:5" ht="15" customHeight="1">
+    <row r="243" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B243" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C243" s="5">
         <v>5</v>
@@ -5686,9 +5691,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="244" spans="2:5" ht="15" customHeight="1">
+    <row r="244" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B244" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C244" s="8">
         <v>2.5</v>
@@ -5701,9 +5706,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="245" spans="2:5" ht="15" customHeight="1">
+    <row r="245" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B245" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C245" s="5">
         <v>2.5</v>
@@ -5716,9 +5721,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="246" spans="2:5" ht="15" customHeight="1">
+    <row r="246" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B246" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C246" s="8">
         <v>4.5</v>
@@ -5731,9 +5736,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="247" spans="2:5" ht="15" customHeight="1">
+    <row r="247" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B247" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C247" s="5">
         <v>23</v>
@@ -5746,9 +5751,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="2:5" ht="15" customHeight="1">
+    <row r="248" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B248" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C248" s="8">
         <v>5</v>
@@ -5761,9 +5766,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="249" spans="2:5" ht="15" customHeight="1">
+    <row r="249" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B249" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C249" s="5">
         <v>5.5</v>
@@ -5776,9 +5781,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="250" spans="2:5" ht="15" customHeight="1">
+    <row r="250" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B250" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C250" s="8">
         <v>15</v>
@@ -5791,9 +5796,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="251" spans="2:5" ht="15" customHeight="1">
+    <row r="251" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B251" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C251" s="5">
         <v>50</v>
@@ -5806,9 +5811,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="2:5" ht="15" customHeight="1">
+    <row r="252" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B252" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C252" s="8">
         <v>3</v>
@@ -5821,9 +5826,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="253" spans="2:5" ht="15" customHeight="1">
+    <row r="253" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B253" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C253" s="5">
         <v>51</v>
@@ -5836,9 +5841,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="254" spans="2:5" ht="15" customHeight="1">
+    <row r="254" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B254" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C254" s="8">
         <v>6</v>
@@ -5851,9 +5856,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="255" spans="2:5" ht="15" customHeight="1">
+    <row r="255" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B255" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C255" s="5">
         <v>20</v>
@@ -5866,9 +5871,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="256" spans="2:5" ht="15" customHeight="1">
+    <row r="256" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B256" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C256" s="8">
         <v>5</v>
@@ -5881,9 +5886,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="257" spans="2:5" ht="15" customHeight="1">
+    <row r="257" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B257" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C257" s="5">
         <v>8</v>
@@ -5896,9 +5901,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="258" spans="2:5" ht="15" customHeight="1">
+    <row r="258" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B258" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C258" s="8">
         <v>0.5</v>
@@ -5911,9 +5916,9 @@
         <v>640</v>
       </c>
     </row>
-    <row r="259" spans="2:5" ht="15" customHeight="1">
+    <row r="259" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B259" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C259" s="5">
         <v>1.5</v>
@@ -5926,9 +5931,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="260" spans="2:5" ht="15" customHeight="1">
+    <row r="260" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B260" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C260" s="8">
         <v>20</v>
@@ -5941,9 +5946,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="261" spans="2:5" ht="15" customHeight="1">
+    <row r="261" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B261" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C261" s="5">
         <v>20</v>
@@ -5956,9 +5961,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="262" spans="2:5" ht="15" customHeight="1">
+    <row r="262" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B262" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C262" s="8">
         <v>15</v>
@@ -5971,9 +5976,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="263" spans="2:5" ht="15" customHeight="1">
+    <row r="263" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B263" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C263" s="5">
         <v>15</v>
@@ -5986,9 +5991,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="264" spans="2:5" ht="15" customHeight="1">
+    <row r="264" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B264" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C264" s="8">
         <v>8</v>
@@ -6001,9 +6006,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="265" spans="2:5" ht="15" customHeight="1">
+    <row r="265" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B265" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C265" s="5">
         <v>6</v>
@@ -6016,9 +6021,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="266" spans="2:5" ht="15" customHeight="1">
+    <row r="266" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B266" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C266" s="8">
         <v>8</v>
@@ -6031,9 +6036,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="267" spans="2:5" ht="15" customHeight="1">
+    <row r="267" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B267" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C267" s="5">
         <v>9</v>
@@ -6046,9 +6051,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="268" spans="2:5" ht="15" customHeight="1">
+    <row r="268" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B268" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C268" s="8">
         <v>60</v>
@@ -6061,9 +6066,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="2:5" ht="15" customHeight="1">
+    <row r="269" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B269" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C269" s="5">
         <v>9</v>
@@ -6076,9 +6081,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="270" spans="2:5" ht="15" customHeight="1">
+    <row r="270" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B270" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C270" s="8">
         <v>6</v>
@@ -6091,9 +6096,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="271" spans="2:5" ht="15" customHeight="1">
+    <row r="271" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B271" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C271" s="5">
         <v>3</v>
@@ -6106,9 +6111,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="272" spans="2:5" ht="15" customHeight="1">
+    <row r="272" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B272" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C272" s="8">
         <v>4</v>
@@ -6121,9 +6126,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="273" spans="2:5" ht="15" customHeight="1">
+    <row r="273" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B273" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C273" s="5">
         <v>5</v>
@@ -6136,9 +6141,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="274" spans="2:5" ht="15" customHeight="1">
+    <row r="274" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B274" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C274" s="8">
         <v>2.5</v>
@@ -6151,9 +6156,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="275" spans="2:5" ht="15" customHeight="1">
+    <row r="275" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B275" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C275" s="5">
         <v>16</v>
@@ -6166,9 +6171,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="276" spans="2:5" ht="15" customHeight="1">
+    <row r="276" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B276" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C276" s="8">
         <v>8</v>
@@ -6181,9 +6186,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="277" spans="2:5" ht="15" customHeight="1">
+    <row r="277" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B277" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C277" s="5">
         <v>8.5</v>
@@ -6196,9 +6201,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="278" spans="2:5" ht="15" customHeight="1">
+    <row r="278" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B278" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C278" s="8">
         <v>4</v>
@@ -6211,9 +6216,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="279" spans="2:5" ht="15" customHeight="1">
+    <row r="279" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B279" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C279" s="5">
         <v>50</v>
@@ -6226,9 +6231,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="2:5" ht="15" customHeight="1">
+    <row r="280" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B280" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C280" s="8">
         <v>6</v>
@@ -6241,9 +6246,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="281" spans="2:5" ht="15" customHeight="1">
+    <row r="281" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B281" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C281" s="5">
         <v>3.5</v>
@@ -6256,9 +6261,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="282" spans="2:5" ht="15" customHeight="1">
+    <row r="282" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B282" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C282" s="8">
         <v>5</v>
@@ -6271,9 +6276,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="283" spans="2:5" ht="15" customHeight="1">
+    <row r="283" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B283" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C283" s="5">
         <v>5</v>
@@ -6286,9 +6291,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="284" spans="2:5" ht="15" customHeight="1">
+    <row r="284" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B284" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C284" s="8">
         <v>17</v>
@@ -6301,9 +6306,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="285" spans="2:5" ht="15" customHeight="1">
+    <row r="285" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B285" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C285" s="5">
         <v>4.5</v>
@@ -6316,9 +6321,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="286" spans="2:5" ht="15" customHeight="1">
+    <row r="286" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B286" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C286" s="8">
         <v>6</v>
@@ -6331,9 +6336,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="287" spans="2:5" ht="15" customHeight="1">
+    <row r="287" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B287" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C287" s="5">
         <v>7</v>
@@ -6346,9 +6351,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="288" spans="2:5" ht="15" customHeight="1">
+    <row r="288" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B288" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C288" s="8">
         <v>13</v>
@@ -6361,9 +6366,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="2:5" ht="15" customHeight="1">
+    <row r="289" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B289" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C289" s="5">
         <v>0.1</v>
@@ -6376,9 +6381,9 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="290" spans="2:5" ht="15" customHeight="1">
+    <row r="290" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B290" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C290" s="8">
         <v>17</v>
@@ -6391,9 +6396,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="291" spans="2:5" ht="15" customHeight="1">
+    <row r="291" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B291" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C291" s="5">
         <v>6.5</v>
@@ -6406,9 +6411,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="292" spans="2:5" ht="15" customHeight="1">
+    <row r="292" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B292" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C292" s="8">
         <v>6.5</v>
@@ -6421,9 +6426,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="293" spans="2:5" ht="15" customHeight="1">
+    <row r="293" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B293" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C293" s="5">
         <v>8</v>
@@ -6436,9 +6441,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="294" spans="2:5" ht="15" customHeight="1">
+    <row r="294" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B294" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C294" s="8">
         <v>9</v>
@@ -6451,9 +6456,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="295" spans="2:5" ht="15" customHeight="1">
+    <row r="295" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B295" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C295" s="5">
         <v>9</v>
@@ -6466,9 +6471,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="296" spans="2:5" ht="15" customHeight="1">
+    <row r="296" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B296" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C296" s="8">
         <v>6</v>
@@ -6481,9 +6486,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="297" spans="2:5" ht="15" customHeight="1">
+    <row r="297" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B297" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C297" s="5">
         <v>11</v>
@@ -6496,9 +6501,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="298" spans="2:5" ht="15" customHeight="1">
+    <row r="298" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B298" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C298" s="8">
         <v>5</v>
@@ -6511,9 +6516,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="299" spans="2:5" ht="15" customHeight="1">
+    <row r="299" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B299" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C299" s="5">
         <v>11</v>
@@ -6526,9 +6531,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="300" spans="2:5" ht="15" customHeight="1">
+    <row r="300" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B300" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C300" s="8">
         <v>11</v>
@@ -6541,9 +6546,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="301" spans="2:5" ht="15" customHeight="1">
+    <row r="301" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B301" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C301" s="5">
         <v>11</v>
@@ -6556,9 +6561,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="302" spans="2:5" ht="15" customHeight="1">
+    <row r="302" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B302" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C302" s="8">
         <v>20</v>
@@ -6571,9 +6576,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="303" spans="2:5" ht="15" customHeight="1">
+    <row r="303" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B303" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C303" s="5">
         <v>12</v>
@@ -6586,9 +6591,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="304" spans="2:5" ht="15" customHeight="1">
+    <row r="304" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B304" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C304" s="8">
         <v>13</v>
@@ -6601,9 +6606,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="305" spans="2:5" ht="15" customHeight="1">
+    <row r="305" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B305" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C305" s="5">
         <v>4</v>
@@ -6616,9 +6621,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="306" spans="2:5" ht="15" customHeight="1">
+    <row r="306" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B306" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C306" s="8">
         <v>8</v>
@@ -6631,9 +6636,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="307" spans="2:5" ht="15" customHeight="1">
+    <row r="307" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B307" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C307" s="5">
         <v>11</v>
@@ -6646,9 +6651,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="308" spans="2:5" ht="15" customHeight="1">
+    <row r="308" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B308" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C308" s="8">
         <v>7</v>
@@ -6661,9 +6666,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="309" spans="2:5" ht="15" customHeight="1">
+    <row r="309" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B309" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C309" s="5">
         <v>5.5</v>
@@ -6676,9 +6681,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="310" spans="2:5" ht="15" customHeight="1">
+    <row r="310" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B310" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C310" s="8">
         <v>8</v>
@@ -6691,9 +6696,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="311" spans="2:5" ht="15" customHeight="1">
+    <row r="311" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B311" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C311" s="5">
         <v>14</v>
@@ -6706,9 +6711,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="312" spans="2:5" ht="15" customHeight="1">
+    <row r="312" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B312" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C312" s="8">
         <v>3</v>
@@ -6721,9 +6726,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="313" spans="2:5" ht="15" customHeight="1">
+    <row r="313" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B313" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C313" s="5">
         <v>22</v>
@@ -6736,9 +6741,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="314" spans="2:5" ht="15" customHeight="1">
+    <row r="314" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B314" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C314" s="8">
         <v>8</v>
@@ -6751,9 +6756,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="315" spans="2:5" ht="15" customHeight="1">
+    <row r="315" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B315" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C315" s="5">
         <v>9</v>
@@ -6766,9 +6771,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="316" spans="2:5" ht="15" customHeight="1">
+    <row r="316" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B316" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C316" s="8">
         <v>3.5</v>
@@ -6781,9 +6786,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="317" spans="2:5" ht="15" customHeight="1">
+    <row r="317" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B317" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C317" s="5">
         <v>9</v>
@@ -6796,9 +6801,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="318" spans="2:5" ht="15" customHeight="1">
+    <row r="318" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B318" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C318" s="8">
         <v>15</v>
@@ -6811,9 +6816,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="319" spans="2:5" ht="15" customHeight="1">
+    <row r="319" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B319" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C319" s="5">
         <v>6</v>
@@ -6826,9 +6831,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="320" spans="2:5" ht="15" customHeight="1">
+    <row r="320" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B320" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C320" s="8">
         <v>15</v>
@@ -6841,9 +6846,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="321" spans="2:5" ht="15" customHeight="1">
+    <row r="321" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B321" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C321" s="5">
         <v>15</v>
@@ -6856,9 +6861,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="322" spans="2:5" ht="15" customHeight="1">
+    <row r="322" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B322" s="13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C322" s="14">
         <v>5</v>
@@ -6871,9 +6876,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="323" spans="2:5" ht="15" customHeight="1">
+    <row r="323" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B323" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C323" s="8">
         <v>6</v>
@@ -6886,9 +6891,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="324" spans="2:5" ht="15" customHeight="1">
+    <row r="324" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B324" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C324" s="5">
         <v>4</v>
@@ -6901,9 +6906,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="325" spans="2:5" ht="15" customHeight="1">
+    <row r="325" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B325" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C325" s="8">
         <v>4.5</v>
@@ -6916,9 +6921,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="326" spans="2:5" ht="15" customHeight="1">
+    <row r="326" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B326" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C326" s="5">
         <v>3.5</v>
@@ -6931,9 +6936,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="327" spans="2:5" ht="15" customHeight="1">
+    <row r="327" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B327" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C327" s="8">
         <v>6</v>
@@ -6946,9 +6951,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="328" spans="2:5" ht="15" customHeight="1">
+    <row r="328" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B328" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C328" s="5">
         <v>5</v>
@@ -6961,9 +6966,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="329" spans="2:5" ht="15" customHeight="1">
+    <row r="329" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B329" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C329" s="8">
         <v>45</v>
@@ -6976,9 +6981,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="330" spans="2:5" ht="15" customHeight="1">
+    <row r="330" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B330" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C330" s="5">
         <v>6</v>
@@ -6991,9 +6996,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="331" spans="2:5" ht="15" customHeight="1">
+    <row r="331" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B331" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C331" s="8">
         <v>5</v>
@@ -7006,9 +7011,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="332" spans="2:5" ht="15" customHeight="1">
+    <row r="332" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B332" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C332" s="5">
         <v>5.5</v>
@@ -7021,9 +7026,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="333" spans="2:5" ht="15" customHeight="1">
+    <row r="333" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B333" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C333" s="8">
         <v>5.5</v>
@@ -7036,9 +7041,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="334" spans="2:5" ht="15" customHeight="1">
+    <row r="334" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B334" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C334" s="5">
         <v>6.5</v>
@@ -7051,9 +7056,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="335" spans="2:5" ht="15" customHeight="1">
+    <row r="335" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B335" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C335" s="8">
         <v>20</v>
@@ -7066,9 +7071,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="336" spans="2:5" ht="15" customHeight="1">
+    <row r="336" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B336" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C336" s="5">
         <v>23</v>
@@ -7081,9 +7086,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="337" spans="2:5" ht="15" customHeight="1">
+    <row r="337" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B337" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C337" s="8">
         <v>8</v>
@@ -7096,9 +7101,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="338" spans="2:5" ht="15" customHeight="1">
+    <row r="338" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B338" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C338" s="5">
         <v>12</v>
@@ -7111,9 +7116,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="339" spans="2:5" ht="15" customHeight="1">
+    <row r="339" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B339" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C339" s="8">
         <v>5.5</v>
@@ -7126,9 +7131,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="340" spans="2:5" ht="15" customHeight="1">
+    <row r="340" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B340" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C340" s="5">
         <v>4.5</v>
@@ -7141,9 +7146,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="341" spans="2:5" ht="15" customHeight="1">
+    <row r="341" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B341" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C341" s="8">
         <v>3</v>
@@ -7156,9 +7161,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="342" spans="2:5" ht="15" customHeight="1">
+    <row r="342" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B342" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C342" s="5">
         <v>3.5</v>
@@ -7171,9 +7176,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="343" spans="2:5" ht="15" customHeight="1">
+    <row r="343" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B343" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C343" s="8">
         <v>20</v>
@@ -7186,9 +7191,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="344" spans="2:5" ht="15" customHeight="1">
+    <row r="344" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B344" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C344" s="5">
         <v>9</v>
@@ -7201,9 +7206,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="345" spans="2:5" ht="15" customHeight="1">
+    <row r="345" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B345" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C345" s="8">
         <v>5</v>
@@ -7216,9 +7221,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="346" spans="2:5" ht="15" customHeight="1">
+    <row r="346" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B346" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C346" s="5">
         <v>3</v>
@@ -7231,9 +7236,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="347" spans="2:5" ht="15" customHeight="1">
+    <row r="347" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B347" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C347" s="8">
         <v>3</v>
@@ -7246,9 +7251,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="348" spans="2:5" ht="15" customHeight="1">
+    <row r="348" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B348" s="17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C348" s="18">
         <v>6</v>
@@ -7261,9 +7266,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="349" spans="2:5" ht="15" customHeight="1">
+    <row r="349" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B349" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C349" s="5">
         <v>5.5</v>
@@ -7276,9 +7281,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="350" spans="2:5" ht="15" customHeight="1">
+    <row r="350" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B350" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C350" s="8">
         <v>25</v>
@@ -7291,9 +7296,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="351" spans="2:5" ht="15" customHeight="1">
+    <row r="351" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B351" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C351" s="5">
         <v>22</v>
@@ -7306,9 +7311,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="352" spans="2:5" ht="15" customHeight="1">
+    <row r="352" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B352" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C352" s="8">
         <v>6.5</v>
@@ -7321,9 +7326,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="353" spans="2:5" ht="15" customHeight="1">
+    <row r="353" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B353" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C353" s="5">
         <v>51</v>
@@ -7336,9 +7341,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="354" spans="2:5" ht="15" customHeight="1">
+    <row r="354" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B354" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C354" s="8">
         <v>51</v>
@@ -7351,9 +7356,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="355" spans="2:5" ht="15" customHeight="1">
+    <row r="355" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B355" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C355" s="5">
         <v>25</v>
@@ -7366,9 +7371,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="356" spans="2:5" ht="15" customHeight="1">
+    <row r="356" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B356" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C356" s="8">
         <v>5</v>
@@ -7381,9 +7386,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="357" spans="2:5" ht="15" customHeight="1">
+    <row r="357" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B357" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C357" s="5">
         <v>5.25</v>
@@ -7396,9 +7401,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="358" spans="2:5" ht="15" customHeight="1">
+    <row r="358" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B358" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C358" s="8">
         <v>5.5</v>
@@ -7411,9 +7416,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="359" spans="2:5" ht="15" customHeight="1">
+    <row r="359" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B359" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C359" s="5">
         <v>2.5</v>
@@ -7426,9 +7431,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="360" spans="2:5" ht="15" customHeight="1">
+    <row r="360" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B360" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C360" s="8">
         <v>11.5</v>
@@ -7441,9 +7446,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="361" spans="2:5" ht="15" customHeight="1">
+    <row r="361" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B361" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C361" s="5">
         <v>22</v>
@@ -7456,9 +7461,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="362" spans="2:5" ht="15" customHeight="1">
+    <row r="362" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B362" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C362" s="8">
         <v>8</v>
@@ -7471,9 +7476,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="363" spans="2:5" ht="15" customHeight="1">
+    <row r="363" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B363" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C363" s="5">
         <v>8</v>
@@ -7486,9 +7491,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="364" spans="2:5" ht="15" customHeight="1">
+    <row r="364" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B364" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C364" s="8">
         <v>11.5</v>
@@ -7501,9 +7506,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="365" spans="2:5" ht="15" customHeight="1">
+    <row r="365" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B365" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C365" s="5">
         <v>3.5</v>
@@ -7516,9 +7521,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="366" spans="2:5" ht="15" customHeight="1">
+    <row r="366" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B366" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C366" s="8">
         <v>8</v>
@@ -7531,9 +7536,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="367" spans="2:5" ht="15" customHeight="1">
+    <row r="367" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B367" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C367" s="5">
         <v>7</v>
@@ -7546,9 +7551,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="368" spans="2:5" ht="15" customHeight="1">
+    <row r="368" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B368" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C368" s="8">
         <v>8</v>
@@ -7561,9 +7566,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="369" spans="2:5" ht="15" customHeight="1">
+    <row r="369" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B369" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C369" s="5">
         <v>9</v>
@@ -7576,9 +7581,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="370" spans="2:5" ht="15" customHeight="1">
+    <row r="370" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B370" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C370" s="8">
         <v>8</v>
@@ -7591,9 +7596,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="371" spans="2:5" ht="15" customHeight="1">
+    <row r="371" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B371" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C371" s="5">
         <v>60</v>
@@ -7606,9 +7611,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="2:5" ht="15" customHeight="1">
+    <row r="372" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B372" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C372" s="8">
         <v>4</v>
@@ -7621,9 +7626,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="373" spans="2:5" ht="15" customHeight="1">
+    <row r="373" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B373" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C373" s="5">
         <v>7</v>
@@ -7636,9 +7641,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="374" spans="2:5" ht="15" customHeight="1">
+    <row r="374" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B374" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C374" s="8">
         <v>3.5</v>
@@ -7651,9 +7656,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="375" spans="2:5" ht="15" customHeight="1">
+    <row r="375" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B375" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C375" s="5">
         <v>3</v>
@@ -7666,9 +7671,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="376" spans="2:5" ht="15" customHeight="1">
+    <row r="376" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B376" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C376" s="8">
         <v>3</v>
@@ -7681,9 +7686,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="377" spans="2:5" ht="15" customHeight="1">
+    <row r="377" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B377" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C377" s="5">
         <v>4</v>
@@ -7696,9 +7701,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="378" spans="2:5" ht="15" customHeight="1">
+    <row r="378" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B378" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C378" s="8">
         <v>5.5</v>
@@ -7711,9 +7716,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="379" spans="2:5" ht="15" customHeight="1">
+    <row r="379" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B379" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C379" s="5">
         <v>5.75</v>
@@ -7726,9 +7731,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="380" spans="2:5" ht="15" customHeight="1">
+    <row r="380" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B380" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C380" s="8">
         <v>5.5</v>
@@ -7741,9 +7746,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="381" spans="2:5" ht="15" customHeight="1">
+    <row r="381" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B381" s="17" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C381" s="18">
         <v>7</v>
@@ -7756,9 +7761,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="382" spans="2:5" ht="15" customHeight="1">
+    <row r="382" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B382" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C382" s="5">
         <v>10</v>
@@ -7771,9 +7776,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="383" spans="2:5" ht="15" customHeight="1">
+    <row r="383" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B383" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C383" s="8">
         <v>3</v>
@@ -7786,9 +7791,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="384" spans="2:5" ht="15" customHeight="1">
+    <row r="384" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B384" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C384" s="5">
         <v>20</v>
@@ -7801,9 +7806,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="385" spans="2:5" ht="15" customHeight="1">
+    <row r="385" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B385" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C385" s="8">
         <v>10</v>
@@ -7816,9 +7821,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="386" spans="2:5" ht="15" customHeight="1">
+    <row r="386" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B386" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C386" s="5">
         <v>25</v>
@@ -7831,9 +7836,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="387" spans="2:5" ht="15" customHeight="1">
+    <row r="387" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B387" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C387" s="8">
         <v>3.5</v>
@@ -7846,9 +7851,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="388" spans="2:5" ht="15" customHeight="1">
+    <row r="388" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B388" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C388" s="5">
         <v>4.5</v>
@@ -7861,9 +7866,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="389" spans="2:5" ht="15" customHeight="1">
+    <row r="389" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B389" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C389" s="8">
         <v>6</v>
@@ -7876,9 +7881,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="390" spans="2:5" ht="15" customHeight="1">
+    <row r="390" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B390" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C390" s="5">
         <v>57</v>
@@ -7891,9 +7896,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="2:5" ht="15" customHeight="1">
+    <row r="391" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B391" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C391" s="8">
         <v>27</v>
@@ -7906,9 +7911,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="392" spans="2:5" ht="15" customHeight="1">
+    <row r="392" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B392" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C392" s="5">
         <v>15</v>
@@ -7921,9 +7926,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="393" spans="2:5" ht="15" customHeight="1">
+    <row r="393" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B393" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C393" s="8">
         <v>9</v>
@@ -7936,9 +7941,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="394" spans="2:5" ht="15" customHeight="1">
+    <row r="394" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B394" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C394" s="5">
         <v>7</v>
@@ -7951,9 +7956,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="395" spans="2:5" ht="15" customHeight="1">
+    <row r="395" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B395" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C395" s="8">
         <v>7</v>
@@ -7966,9 +7971,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="396" spans="2:5" ht="15" customHeight="1">
+    <row r="396" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B396" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C396" s="5">
         <v>7</v>
@@ -7981,9 +7986,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="397" spans="2:5" ht="15" customHeight="1">
+    <row r="397" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B397" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C397" s="8">
         <v>7</v>
@@ -7996,9 +8001,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="398" spans="2:5" ht="15" customHeight="1">
+    <row r="398" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B398" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C398" s="5">
         <v>15</v>
@@ -8011,9 +8016,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="399" spans="2:5" ht="15" customHeight="1">
+    <row r="399" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B399" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C399" s="8">
         <v>15</v>
@@ -8026,9 +8031,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="400" spans="2:5" ht="15" customHeight="1">
+    <row r="400" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B400" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C400" s="5">
         <v>15</v>
@@ -8041,9 +8046,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="401" spans="2:5" ht="15" customHeight="1">
+    <row r="401" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B401" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C401" s="8">
         <v>4</v>
@@ -8056,9 +8061,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="402" spans="2:5" ht="15" customHeight="1">
+    <row r="402" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B402" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C402" s="5">
         <v>2.5</v>
@@ -8071,9 +8076,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="403" spans="2:5" ht="15" customHeight="1">
+    <row r="403" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B403" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C403" s="8">
         <v>23</v>
@@ -8086,9 +8091,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="404" spans="2:5" ht="15" customHeight="1">
+    <row r="404" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B404" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C404" s="5">
         <v>5.5</v>
@@ -8101,9 +8106,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="405" spans="2:5" ht="15" customHeight="1">
+    <row r="405" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B405" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C405" s="8">
         <v>9</v>
@@ -8116,9 +8121,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="406" spans="2:5" ht="15" customHeight="1">
+    <row r="406" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B406" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C406" s="5">
         <v>9</v>
@@ -8131,9 +8136,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="407" spans="2:5" ht="15" customHeight="1">
+    <row r="407" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B407" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C407" s="8">
         <v>50</v>
@@ -8146,9 +8151,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="408" spans="2:5" ht="15" customHeight="1">
+    <row r="408" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B408" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C408" s="5">
         <v>1</v>
@@ -8161,9 +8166,9 @@
         <v>320</v>
       </c>
     </row>
-    <row r="409" spans="2:5" ht="15" customHeight="1">
+    <row r="409" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B409" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C409" s="8">
         <v>10</v>
@@ -8176,9 +8181,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="410" spans="2:5" ht="15" customHeight="1">
+    <row r="410" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B410" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C410" s="5">
         <v>25</v>
@@ -8191,9 +8196,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="411" spans="2:5" ht="15" customHeight="1">
+    <row r="411" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B411" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C411" s="8">
         <v>27</v>
@@ -8206,9 +8211,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="412" spans="2:5" ht="15" customHeight="1">
+    <row r="412" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B412" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C412" s="5">
         <v>10</v>
@@ -8221,9 +8226,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="413" spans="2:5" ht="15" customHeight="1">
+    <row r="413" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B413" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C413" s="8">
         <v>9</v>
@@ -8236,9 +8241,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="414" spans="2:5" ht="15" customHeight="1">
+    <row r="414" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B414" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C414" s="5">
         <v>4.5</v>
@@ -8251,9 +8256,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="415" spans="2:5" ht="15" customHeight="1">
+    <row r="415" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B415" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C415" s="8">
         <v>3.5</v>
@@ -8266,9 +8271,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="416" spans="2:5" ht="15" customHeight="1">
+    <row r="416" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B416" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C416" s="5">
         <v>7</v>
@@ -8281,9 +8286,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="417" spans="2:5" ht="15" customHeight="1">
+    <row r="417" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B417" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C417" s="8">
         <v>9</v>
@@ -8296,9 +8301,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="418" spans="2:5" ht="15" customHeight="1">
+    <row r="418" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B418" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C418" s="5">
         <v>50</v>
@@ -8311,9 +8316,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="419" spans="2:5" ht="15" customHeight="1">
+    <row r="419" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B419" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C419" s="8">
         <v>8</v>
@@ -8326,9 +8331,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="420" spans="2:5" ht="15" customHeight="1">
+    <row r="420" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B420" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C420" s="5">
         <v>11</v>
@@ -8341,9 +8346,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="421" spans="2:5" ht="15" customHeight="1">
+    <row r="421" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B421" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C421" s="8">
         <v>5</v>
@@ -8356,9 +8361,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="422" spans="2:5" ht="15" customHeight="1">
+    <row r="422" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B422" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C422" s="5">
         <v>18</v>
@@ -8371,9 +8376,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="423" spans="2:5" ht="15" customHeight="1">
+    <row r="423" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B423" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C423" s="8">
         <v>17</v>
@@ -8386,9 +8391,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="424" spans="2:5" ht="15" customHeight="1">
+    <row r="424" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B424" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C424" s="5">
         <v>9</v>
@@ -8401,9 +8406,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="425" spans="2:5" ht="15" customHeight="1">
+    <row r="425" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B425" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C425" s="8">
         <v>3.5</v>
@@ -8416,9 +8421,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="426" spans="2:5" ht="15" customHeight="1">
+    <row r="426" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B426" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C426" s="5">
         <v>5</v>
@@ -8431,9 +8436,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="427" spans="2:5" ht="15" customHeight="1">
+    <row r="427" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B427" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C427" s="8">
         <v>20</v>
@@ -8446,9 +8451,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="428" spans="2:5" ht="15" customHeight="1">
+    <row r="428" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B428" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C428" s="5">
         <v>8</v>
@@ -8461,9 +8466,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="429" spans="2:5" ht="15" customHeight="1">
+    <row r="429" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B429" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C429" s="8">
         <v>50</v>
@@ -8476,9 +8481,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="430" spans="2:5" ht="15" customHeight="1">
+    <row r="430" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B430" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C430" s="5">
         <v>25</v>
@@ -8491,9 +8496,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="431" spans="2:5" ht="15" customHeight="1">
+    <row r="431" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B431" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C431" s="8">
         <v>23</v>
@@ -8506,9 +8511,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="432" spans="2:5" ht="15" customHeight="1">
+    <row r="432" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B432" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C432" s="5">
         <v>11</v>
@@ -8521,9 +8526,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="433" spans="2:5" ht="15" customHeight="1">
+    <row r="433" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B433" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C433" s="8">
         <v>22</v>
@@ -8536,9 +8541,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="434" spans="2:5" ht="15" customHeight="1">
+    <row r="434" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B434" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C434" s="5">
         <v>5.75</v>
@@ -8551,9 +8556,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="435" spans="2:5" ht="15" customHeight="1">
+    <row r="435" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B435" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C435" s="8">
         <v>5</v>
@@ -8566,9 +8571,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="436" spans="2:5" ht="15" customHeight="1">
+    <row r="436" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B436" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C436" s="5">
         <v>5</v>
@@ -8581,9 +8586,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="437" spans="2:5" ht="15" customHeight="1">
+    <row r="437" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B437" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C437" s="8">
         <v>2.5</v>
@@ -8596,9 +8601,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="438" spans="2:5" ht="15" customHeight="1">
+    <row r="438" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B438" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C438" s="5">
         <v>5</v>
@@ -8611,9 +8616,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="439" spans="2:5" ht="15" customHeight="1">
+    <row r="439" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B439" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C439" s="8">
         <v>2.5</v>
@@ -8626,9 +8631,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="440" spans="2:5" ht="15" customHeight="1">
+    <row r="440" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B440" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C440" s="5">
         <v>6</v>
@@ -8641,9 +8646,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="441" spans="2:5" ht="15" customHeight="1">
+    <row r="441" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B441" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C441" s="8">
         <v>6.5</v>
@@ -8656,9 +8661,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="442" spans="2:5" ht="15" customHeight="1">
+    <row r="442" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B442" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C442" s="5">
         <v>6.5</v>
@@ -8671,9 +8676,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="443" spans="2:5" ht="15" customHeight="1">
+    <row r="443" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B443" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C443" s="8">
         <v>4</v>
@@ -8686,9 +8691,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="444" spans="2:5" ht="15" customHeight="1">
+    <row r="444" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B444" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C444" s="5">
         <v>4.5</v>
@@ -8701,9 +8706,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="445" spans="2:5" ht="15" customHeight="1">
+    <row r="445" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B445" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C445" s="8">
         <v>4</v>
@@ -8716,9 +8721,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="446" spans="2:5" ht="15" customHeight="1">
+    <row r="446" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B446" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C446" s="5">
         <v>4</v>
@@ -8731,9 +8736,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="447" spans="2:5" ht="15" customHeight="1">
+    <row r="447" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B447" s="7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C447" s="8">
         <v>6</v>
@@ -8746,9 +8751,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="448" spans="2:5" ht="15" customHeight="1">
+    <row r="448" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B448" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C448" s="5">
         <v>6.5</v>
@@ -8761,9 +8766,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="449" spans="2:5" ht="15" customHeight="1">
+    <row r="449" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B449" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C449" s="8">
         <v>3.5</v>
@@ -8776,9 +8781,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="450" spans="2:5" ht="15" customHeight="1">
+    <row r="450" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B450" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C450" s="5">
         <v>9</v>
@@ -8791,9 +8796,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="451" spans="2:5" ht="15" customHeight="1">
+    <row r="451" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B451" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C451" s="8">
         <v>10</v>
@@ -8806,9 +8811,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="452" spans="2:5" ht="15" customHeight="1">
+    <row r="452" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B452" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C452" s="5">
         <v>20</v>
@@ -8821,9 +8826,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="453" spans="2:5" ht="15" customHeight="1">
+    <row r="453" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B453" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C453" s="8">
         <v>15</v>
@@ -8836,9 +8841,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="454" spans="2:5" ht="15" customHeight="1">
+    <row r="454" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B454" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C454" s="5">
         <v>5.5</v>
@@ -8851,9 +8856,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="455" spans="2:5" ht="15" customHeight="1">
+    <row r="455" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B455" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C455" s="8">
         <v>8</v>
@@ -8866,9 +8871,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="456" spans="2:5" ht="15" customHeight="1">
+    <row r="456" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B456" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C456" s="5">
         <v>3</v>
@@ -8881,9 +8886,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="457" spans="2:5" ht="15" customHeight="1">
+    <row r="457" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B457" s="7" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C457" s="8">
         <v>17</v>
@@ -8896,9 +8901,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="458" spans="2:5" ht="15" customHeight="1">
+    <row r="458" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B458" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C458" s="5">
         <v>6.5</v>
@@ -8911,9 +8916,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="459" spans="2:5" ht="15" customHeight="1">
+    <row r="459" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B459" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C459" s="8">
         <v>8</v>
@@ -8926,9 +8931,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="460" spans="2:5" ht="15" customHeight="1">
+    <row r="460" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B460" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C460" s="5">
         <v>35</v>
@@ -8941,9 +8946,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="461" spans="2:5" ht="15" customHeight="1">
+    <row r="461" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B461" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C461" s="8">
         <v>11</v>
@@ -8956,9 +8961,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="462" spans="2:5" ht="15" customHeight="1">
+    <row r="462" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B462" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C462" s="5">
         <v>7</v>
@@ -8971,9 +8976,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="463" spans="2:5" ht="15" customHeight="1">
+    <row r="463" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B463" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C463" s="8">
         <v>7.5</v>
@@ -8986,9 +8991,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="464" spans="2:5" ht="15" customHeight="1">
+    <row r="464" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B464" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C464" s="5">
         <v>8</v>
@@ -9001,9 +9006,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="465" spans="2:5" ht="15" customHeight="1">
+    <row r="465" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B465" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C465" s="8">
         <v>9</v>
@@ -9016,9 +9021,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="466" spans="2:5" ht="15" customHeight="1">
+    <row r="466" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B466" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C466" s="5">
         <v>11</v>
@@ -9031,9 +9036,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="467" spans="2:5" ht="15" customHeight="1">
+    <row r="467" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B467" s="12" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C467" s="12">
         <v>13</v>
@@ -9046,9 +9051,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="468" spans="2:5" ht="15" customHeight="1">
+    <row r="468" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B468" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C468" s="12">
         <v>15</v>
@@ -9061,9 +9066,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="469" spans="2:5" ht="15" customHeight="1">
+    <row r="469" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B469" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C469" s="5">
         <v>9.5</v>
@@ -9076,9 +9081,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="470" spans="2:5" ht="15" customHeight="1">
+    <row r="470" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B470" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C470" s="8">
         <v>16</v>
@@ -9091,9 +9096,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="471" spans="2:5" ht="15" customHeight="1">
+    <row r="471" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B471" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C471" s="5">
         <v>20</v>
@@ -9106,9 +9111,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="472" spans="2:5" ht="15" customHeight="1">
+    <row r="472" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B472" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C472" s="8">
         <v>15</v>
@@ -9121,9 +9126,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="473" spans="2:5" ht="15" customHeight="1">
+    <row r="473" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B473" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C473" s="5">
         <v>18</v>
@@ -9136,9 +9141,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="474" spans="2:5" ht="15" customHeight="1">
+    <row r="474" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B474" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C474" s="8">
         <v>10</v>
@@ -9151,9 +9156,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="475" spans="2:5" ht="15" customHeight="1">
+    <row r="475" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B475" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C475" s="5">
         <v>5</v>
@@ -9166,9 +9171,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="476" spans="2:5" ht="15" customHeight="1">
+    <row r="476" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B476" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C476" s="8">
         <v>9</v>
@@ -9181,9 +9186,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="477" spans="2:5" ht="15" customHeight="1">
+    <row r="477" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B477" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C477" s="5">
         <v>8</v>
@@ -9196,9 +9201,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="478" spans="2:5" ht="15" customHeight="1">
+    <row r="478" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B478" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C478" s="8">
         <v>2.5</v>
@@ -9211,9 +9216,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="479" spans="2:5" ht="15" customHeight="1">
+    <row r="479" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B479" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C479" s="5">
         <v>2.5</v>
@@ -9226,9 +9231,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="480" spans="2:5" ht="15" customHeight="1">
+    <row r="480" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B480" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C480" s="8">
         <v>2.5</v>
@@ -9241,9 +9246,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="481" spans="2:5" ht="15" customHeight="1">
+    <row r="481" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B481" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C481" s="5">
         <v>3.5</v>
@@ -9256,9 +9261,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="482" spans="2:5" ht="15" customHeight="1">
+    <row r="482" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B482" s="7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C482" s="8">
         <v>3.75</v>
@@ -9271,9 +9276,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="483" spans="2:5" ht="15" customHeight="1">
+    <row r="483" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B483" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C483" s="5">
         <v>3.5</v>
@@ -9286,9 +9291,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="484" spans="2:5" ht="15" customHeight="1">
+    <row r="484" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B484" s="7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C484" s="8">
         <v>3.5</v>
@@ -9301,9 +9306,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="485" spans="2:5" ht="15" customHeight="1">
+    <row r="485" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B485" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C485" s="5">
         <v>11.5</v>
@@ -9316,9 +9321,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="486" spans="2:5" ht="15" customHeight="1">
+    <row r="486" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B486" s="7" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C486" s="8">
         <v>5</v>
@@ -9331,9 +9336,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="487" spans="2:5" ht="15" customHeight="1">
+    <row r="487" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B487" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C487" s="5">
         <v>6</v>
@@ -9346,9 +9351,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="488" spans="2:5" ht="15" customHeight="1">
+    <row r="488" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B488" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C488" s="8">
         <v>6</v>
@@ -9361,9 +9366,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="489" spans="2:5" ht="15" customHeight="1">
+    <row r="489" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B489" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C489" s="5">
         <v>3.5</v>
@@ -9376,9 +9381,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="490" spans="2:5" ht="15" customHeight="1">
+    <row r="490" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B490" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C490" s="8">
         <v>17</v>
@@ -9391,9 +9396,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="491" spans="2:5" ht="15" customHeight="1">
+    <row r="491" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B491" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C491" s="5">
         <v>5</v>
